--- a/Trinity_Frameshifting_Supplemental.xlsx
+++ b/Trinity_Frameshifting_Supplemental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luket\Desktop\trinity_frameshifting_supplemental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luket\Desktop\frameshifting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F924A7-DE98-4C80-AEB9-F7A46E2F8DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB311D7-C7E8-43B5-BEEF-B90C493AC13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="895" activeTab="15" xr2:uid="{41025725-4CDB-4209-AE32-69A331543813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="895" activeTab="17" xr2:uid="{41025725-4CDB-4209-AE32-69A331543813}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="14" r:id="rId1"/>
@@ -27,8 +27,10 @@
     <sheet name="Table 12" sheetId="9" r:id="rId12"/>
     <sheet name="Table 13" sheetId="10" r:id="rId13"/>
     <sheet name="Table 14" sheetId="3" r:id="rId14"/>
-    <sheet name="Figure 6 Data" sheetId="16" r:id="rId15"/>
-    <sheet name="Accession IDs" sheetId="18" r:id="rId16"/>
+    <sheet name="Table 15" sheetId="19" r:id="rId15"/>
+    <sheet name="Figure 6 Data" sheetId="16" r:id="rId16"/>
+    <sheet name="Figure 9" sheetId="20" r:id="rId17"/>
+    <sheet name="Accession IDs" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="383">
   <si>
     <t>ID</t>
   </si>
@@ -707,18 +709,6 @@
   </si>
   <si>
     <t>Huston et al. SHAPE data</t>
-  </si>
-  <si>
-    <t>Mean Bootstrapped Manfredonia et al. SHAPE data</t>
-  </si>
-  <si>
-    <t>Variance Bootstrapped Manfredonia et al. SHAPE data</t>
-  </si>
-  <si>
-    <t>Mean Bootstrapped Huston et al. SHAPE data</t>
-  </si>
-  <si>
-    <t>Variance Bootstrapped Huston et al. SHAPE data</t>
   </si>
   <si>
     <r>
@@ -1020,12 +1010,6 @@
     <t>Input Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Morandi et al. </t>
-  </si>
-  <si>
-    <t>.(((((((((.(([[[[[)))))))))))((((((((((((....)).))).)))))))....]]]]]</t>
-  </si>
-  <si>
     <r>
       <t>GCGGUGUAAGUG</t>
     </r>
@@ -1192,15 +1176,6 @@
       </rPr>
       <t>AGGGCU</t>
     </r>
-  </si>
-  <si>
-    <t>Mean Bootstrapped Morandi et al. SHAPE data</t>
-  </si>
-  <si>
-    <t>Variance Bootstrapped Morandi et al. SHAPE data</t>
-  </si>
-  <si>
-    <t>Morandi et al. SHAPE data</t>
   </si>
   <si>
     <t>[[[[[[[[[[..........]]]]]]]]]][[[[[[[[(((.(((....]].]]]]]]...))).)))</t>
@@ -1605,12 +1580,407 @@
   <si>
     <t>B.1.351 lineage (a.k.a. 501.V2 variant, 20C/501Y.V2, or South African coronavirus variant) accession IDs</t>
   </si>
+  <si>
+    <t>Yang et al.</t>
+  </si>
+  <si>
+    <t>(((.......)))(((((..........(((((((((((.........))).))))))))...)))))</t>
+  </si>
+  <si>
+    <t>Yang et al. SHAPE data</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7456440</t>
+  </si>
+  <si>
+    <t>EPI_ISL_6913115</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7605713</t>
+  </si>
+  <si>
+    <t>B.1.1.52A+BA.* lineage (a.k.a.~Variant of Concern Omicron GRA) accession IDs</t>
+  </si>
+  <si>
+    <t>Omicron BA.2</t>
+  </si>
+  <si>
+    <t>Omicron BA.3</t>
+  </si>
+  <si>
+    <t>EPI_ISL_679_5834</t>
+  </si>
+  <si>
+    <t>1, 3, 8, 9, 11</t>
+  </si>
+  <si>
+    <t>1, 9, 11, 18</t>
+  </si>
+  <si>
+    <t>1, 9, 18</t>
+  </si>
+  <si>
+    <t>3, 8</t>
+  </si>
+  <si>
+    <t>5, 13, 15, 19</t>
+  </si>
+  <si>
+    <t>10, 12</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>NN1</t>
+  </si>
+  <si>
+    <t>.(((((((((...[[[[[[[))))))))).[[[[[[[[[.........]]].]]]]]]..]].]]]]]</t>
+  </si>
+  <si>
+    <t>NN2</t>
+  </si>
+  <si>
+    <t>NN3</t>
+  </si>
+  <si>
+    <t>NN4</t>
+  </si>
+  <si>
+    <t>NN5</t>
+  </si>
+  <si>
+    <t>NN6</t>
+  </si>
+  <si>
+    <t>NN7</t>
+  </si>
+  <si>
+    <t>NN8</t>
+  </si>
+  <si>
+    <t>NN9</t>
+  </si>
+  <si>
+    <t>NN10</t>
+  </si>
+  <si>
+    <t>(((((((......[[[[[[[...)))))))[[[[[[[[[.........]]].]]]]]]..]].]]]]]</t>
+  </si>
+  <si>
+    <t>NN11</t>
+  </si>
+  <si>
+    <t>NN12</t>
+  </si>
+  <si>
+    <t>NN13</t>
+  </si>
+  <si>
+    <t>NN14</t>
+  </si>
+  <si>
+    <t>NN15</t>
+  </si>
+  <si>
+    <t>NN16</t>
+  </si>
+  <si>
+    <t>NN17</t>
+  </si>
+  <si>
+    <t>..[[[[[..[[[[(((((....(((..(((.((]]]]..]]]]].....)))))..)))....)))))</t>
+  </si>
+  <si>
+    <t>NN18</t>
+  </si>
+  <si>
+    <t>(((([[[[[[......))))]]]]]][[..[[[[[[[[[.........]]].]]]]]].....]]…</t>
+  </si>
+  <si>
+    <t>NN19</t>
+  </si>
+  <si>
+    <t>NN20</t>
+  </si>
+  <si>
+    <t>[[[.......]]].[[[[[[........(((((((([[[.........]]].))))))))]].]]]].</t>
+  </si>
+  <si>
+    <t>NN21</t>
+  </si>
+  <si>
+    <t>[[[[[[[..[[[[(((((....(((((((....]]]]..]]]]].]]..))..)).)))....)))))</t>
+  </si>
+  <si>
+    <t>NN22</t>
+  </si>
+  <si>
+    <t>[[[[.[[.......]]]]]]......(((((((((([[[.........]]].))))))))...))…</t>
+  </si>
+  <si>
+    <t>NN23</t>
+  </si>
+  <si>
+    <t>NN24</t>
+  </si>
+  <si>
+    <t>..[[[.........]]].(((((.....(((((((((([.........])).))))))))..))))).</t>
+  </si>
+  <si>
+    <t>NN25</t>
+  </si>
+  <si>
+    <t>[[[.......]]].[[[[..[.......].[[(((((((.........))).))))]].....]]]].</t>
+  </si>
+  <si>
+    <t>NN26</t>
+  </si>
+  <si>
+    <t>..[[[[[[[....((((((((]]]]]]]((([.......]))).......)))..........)))))</t>
+  </si>
+  <si>
+    <t>NN27</t>
+  </si>
+  <si>
+    <t>[[[.......]]].(((.[[[[[.....[[[[[[[[[[)))........]].]]]]]]]]..]]]]].</t>
+  </si>
+  <si>
+    <t>NN28</t>
+  </si>
+  <si>
+    <t>[[[[.[[.......]]]]]]........(((([[[[[[[)))).....]]].]]]]............</t>
+  </si>
+  <si>
+    <t>NN29</t>
+  </si>
+  <si>
+    <t>[[[[[[[.[[[...((((((((....[[....]]...))))......]]].]]]]]]].....)))).</t>
+  </si>
+  <si>
+    <t>NN30</t>
+  </si>
+  <si>
+    <t>[[[[[[[.[[[..(((((((((....[[....]]...))))......]]].]]]]]]].....)))))</t>
+  </si>
+  <si>
+    <t>NN31</t>
+  </si>
+  <si>
+    <t>.....(((......(((.[[[[[.....[[[[[[[[[[))).....)))]].]]]]]]]]..]]]]].</t>
+  </si>
+  <si>
+    <t>NN32</t>
+  </si>
+  <si>
+    <t>[[[[(((..((((.((]]]]..........)).))))..)))...[[.[[[..........]]].]].</t>
+  </si>
+  <si>
+    <t>NN33</t>
+  </si>
+  <si>
+    <t>.(((((...(....(((.[[[[[.....[[[[[[[[..))).)...))))).]]]]]]]]..]]]]].</t>
+  </si>
+  <si>
+    <t>NN34</t>
+  </si>
+  <si>
+    <t>..[[[.........]]].((((....[[[[[[[[[[.))))...........]]]]]]]]...]]...</t>
+  </si>
+  <si>
+    <t>NN35</t>
+  </si>
+  <si>
+    <r>
+      <t>((((((((((...[[[[[[[))))))))))[[[[[[[[[.........]]].]]]]]]..]].]]]]]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>B.1.617.2 lineage (a.k.a.~Variant of Concern Delta G/478K.V1) accession IDs</t>
+  </si>
+  <si>
+    <t>EPI_ISL_9525069</t>
+  </si>
+  <si>
+    <t>EPI_ISL_9475746</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Predicted secondary structures for the SARS-CoV-2 -1 PRF stimulating pseudoknot based on the reference sequence. These structures are predicted by Shapify given the input structures in Table 2 as structural constraints. Certain suboptimal structures (e.g.8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) are reported because in these cases the structure has only slightly higher free energy than the minimum free energy structure predicted by Shapify. Native structure is marked with an asterisk (*) in row 1. As shown in rows 1, 2 and 5 of the table, multiple initial stems can result in a single prediction for the -1 PRF stimulating pseudoknot. Input sequence provided in bottom row.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure 9:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hierarchical Folding Pipeline. Rectangles dictate actions, parallelograms denote outputs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean Bootstrapped Manfredonia et al. ShapeKnots data</t>
+  </si>
+  <si>
+    <t>Variance Bootstrapped Manfredonia et al. ShapeKnots data</t>
+  </si>
+  <si>
+    <t>Mean Bootstrapped Huston et al. ShapeKnots data</t>
+  </si>
+  <si>
+    <t>Variance Bootstrapped Huston et al. ShapeKnots data</t>
+  </si>
+  <si>
+    <t>Mean Bootstrapped Yang et al. ShapeKnots data</t>
+  </si>
+  <si>
+    <t>Variance Bootstrapped Yang et al. ShapeKnots data</t>
+  </si>
+  <si>
+    <t>Mean Bootstrapped Yang et al. Shapify data</t>
+  </si>
+  <si>
+    <t>Variance Bootstrapped Yang et al. Shapify data</t>
+  </si>
+  <si>
+    <t>Mean Bootstrapped Huston et al. Shapify data</t>
+  </si>
+  <si>
+    <t>Variance Bootstrapped Huston et al. Shapify data</t>
+  </si>
+  <si>
+    <t>Mean Bootstrapped Manfredonia et al. Shapify data</t>
+  </si>
+  <si>
+    <t>Variance Bootstrapped Manfredonia et al. Shapify data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,6 +2017,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1668,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1718,6 +2095,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1738,10 +2122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1759,6 +2146,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E557D5BE-B956-457C-8CC2-C401A940BDC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7175150" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2150,11 +2586,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -2348,10 +2784,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1">
         <v>-15.63</v>
@@ -2390,10 +2826,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1">
         <v>-14.34</v>
@@ -2407,7 +2843,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1">
         <v>-14.24</v>
@@ -2421,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1">
         <v>-13.5</v>
@@ -2432,7 +2868,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>101</v>
@@ -2460,10 +2896,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1">
         <v>-13.26</v>
@@ -2491,7 +2927,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C16" s="1">
         <v>-12.44</v>
@@ -2516,7 +2952,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>105</v>
@@ -2543,28 +2979,28 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2737,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C11" s="1">
         <v>-14.54</v>
@@ -2762,7 +3198,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>92</v>
@@ -2779,7 +3215,7 @@
         <v>206</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C14" s="1">
         <v>-13.1</v>
@@ -2803,28 +3239,28 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3009,10 +3445,10 @@
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1">
         <v>-15.94</v>
@@ -3023,7 +3459,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>110</v>
@@ -3037,7 +3473,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>113</v>
@@ -3079,10 +3515,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C17" s="1">
         <v>-14.36</v>
@@ -3092,48 +3528,48 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3291,7 +3727,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>200</v>
@@ -3333,10 +3769,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C13" s="1">
         <v>-15.31</v>
@@ -3347,10 +3783,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1">
         <v>-15.11</v>
@@ -3402,28 +3838,28 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3441,7 +3877,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3527,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1">
         <v>-17.13</v>
@@ -3569,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1">
         <v>-16.29</v>
@@ -3583,7 +4019,7 @@
         <v>206</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1">
         <v>-15.15</v>
@@ -3594,10 +4030,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1">
         <v>-15.12</v>
@@ -3622,10 +4058,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1">
         <v>-14.91</v>
@@ -3653,7 +4089,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1">
         <v>-14.25</v>
@@ -3681,7 +4117,7 @@
         <v>197</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C17" s="1">
         <v>-13.26</v>
@@ -3692,7 +4128,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>92</v>
@@ -3706,10 +4142,10 @@
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C19" s="1">
         <v>-12.44</v>
@@ -3733,28 +4169,28 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3768,22 +4204,834 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C062781A-B47D-424A-AF62-7CD9D5918DB1}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="87.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3">
+        <v>-18.860499999999998</v>
+      </c>
+      <c r="G3">
+        <v>-18.470500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4">
+        <v>-18.799499999999998</v>
+      </c>
+      <c r="G4">
+        <v>-18.479500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>14</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5">
+        <v>-18.443200000000001</v>
+      </c>
+      <c r="G5">
+        <v>-17.513200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6">
+        <v>-18.263200000000001</v>
+      </c>
+      <c r="G6">
+        <v>-15.373200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7">
+        <v>-17.8232</v>
+      </c>
+      <c r="G7">
+        <v>-17.7532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8">
+        <v>-17.630400000000002</v>
+      </c>
+      <c r="G8">
+        <v>-17.3704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9">
+        <v>-17.369900000000001</v>
+      </c>
+      <c r="G9">
+        <v>-16.979900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>12</v>
+      </c>
+      <c r="B10" s="23">
+        <v>12</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10">
+        <v>-16.617999999999999</v>
+      </c>
+      <c r="G10">
+        <v>-16.228000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11">
+        <v>-16.32</v>
+      </c>
+      <c r="G11">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12">
+        <v>-16.244599999999998</v>
+      </c>
+      <c r="G12">
+        <v>-15.864599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13">
+        <v>-16.0745</v>
+      </c>
+      <c r="G13">
+        <v>-13.8545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23">
+        <v>7</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14">
+        <v>-15.8127</v>
+      </c>
+      <c r="G14">
+        <v>-15.422700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15">
+        <v>-14.561299999999999</v>
+      </c>
+      <c r="G15">
+        <v>-14.311299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16">
+        <v>-14.415900000000001</v>
+      </c>
+      <c r="G16">
+        <v>-13.7759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>18</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17">
+        <v>-13.9133</v>
+      </c>
+      <c r="G17">
+        <v>-13.843299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18">
+        <v>-13.7508</v>
+      </c>
+      <c r="G18">
+        <v>-12.380800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19">
+        <v>-13.5695</v>
+      </c>
+      <c r="G19">
+        <v>-13.439500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20">
+        <v>-13.151199999999999</v>
+      </c>
+      <c r="G20">
+        <v>-12.2012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>17</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21">
+        <v>-12.3451</v>
+      </c>
+      <c r="G21">
+        <v>-12.0251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22">
+        <v>-12.3012</v>
+      </c>
+      <c r="G22">
+        <v>-11.3512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23">
+        <v>-11.910500000000001</v>
+      </c>
+      <c r="G23">
+        <v>-10.720499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24">
+        <v>-11.53</v>
+      </c>
+      <c r="G24">
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F25">
+        <v>-11.372</v>
+      </c>
+      <c r="G25">
+        <v>-11.052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26">
+        <v>-11.24</v>
+      </c>
+      <c r="G26">
+        <v>-10.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>339</v>
+      </c>
+      <c r="F27">
+        <v>-11.050700000000001</v>
+      </c>
+      <c r="G27">
+        <v>-9.8606999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23">
+        <v>11</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28">
+        <v>-10.79</v>
+      </c>
+      <c r="G28">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23">
+        <v>4</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29">
+        <v>-10.59</v>
+      </c>
+      <c r="G29">
+        <v>-8.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30">
+        <v>-10.571400000000001</v>
+      </c>
+      <c r="G30">
+        <v>-9.4513999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31">
+        <v>-10.5451</v>
+      </c>
+      <c r="G31">
+        <v>-7.9451000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32">
+        <v>-10.5306</v>
+      </c>
+      <c r="G32">
+        <v>-8.3106000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23">
+        <v>14</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33">
+        <v>-10.415800000000001</v>
+      </c>
+      <c r="G33">
+        <v>-8.0457999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23">
+        <v>17</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E34" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34">
+        <v>-10.2364</v>
+      </c>
+      <c r="G34">
+        <v>-8.9763999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35">
+        <v>-10.061</v>
+      </c>
+      <c r="G35">
+        <v>-9.1509999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F36">
+        <v>-10.019399999999999</v>
+      </c>
+      <c r="G36">
+        <v>-7.9493999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37">
+        <v>-10.0044</v>
+      </c>
+      <c r="G37">
+        <v>-9.1443999999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E38" t="s">
+        <v>361</v>
+      </c>
+      <c r="F38">
+        <v>-9.6342999999999996</v>
+      </c>
+      <c r="G38">
+        <v>-7.2942999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A41:G41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA18E73-839A-4810-946B-98E612849301}">
-  <dimension ref="A1:BQ10"/>
+  <dimension ref="A1:BQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH22" sqref="BH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="49" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="69" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="49" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="65" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="10.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.3">
@@ -4269,7 +5517,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>371</v>
       </c>
       <c r="B3" s="12">
         <v>0.1595</v>
@@ -4478,7 +5726,7 @@
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="B4" s="12">
         <v>0.13405975000000001</v>
@@ -4687,1256 +5935,2510 @@
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="B5" s="12">
-        <v>-4.3166000000000003E-2</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="C5" s="12">
-        <v>-0.30715599999999998</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="D5" s="12">
-        <v>-0.18822900000000001</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
-        <v>0.20760899999999999</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>0.261934</v>
+        <v>1</v>
       </c>
       <c r="G5" s="12">
-        <v>-0.28014</v>
+        <v>1</v>
       </c>
       <c r="H5" s="12">
-        <v>7.5760999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12">
-        <v>-2.9071E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="J5" s="12">
-        <v>-0.35032200000000002</v>
+        <v>1</v>
       </c>
       <c r="K5" s="12">
-        <v>2.0514269999999999</v>
+        <v>1</v>
       </c>
       <c r="L5" s="12">
-        <v>1.8960870000000001</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M5" s="12">
-        <v>1.2198150000000001</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="N5" s="12">
-        <v>0.59669300000000003</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="O5" s="12">
-        <v>-0.18587899999999999</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="P5" s="12">
-        <v>2.7897000000000002E-2</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="Q5" s="12">
-        <v>-4.7571000000000002E-2</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="R5" s="12">
-        <v>0.48863099999999998</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="S5" s="12">
-        <v>2.349E-3</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="T5" s="12">
-        <v>-0.113055</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="U5" s="12">
-        <v>0.28014</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="V5" s="12">
-        <v>0.59316999999999998</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="W5" s="12">
-        <v>0.41375000000000001</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="X5" s="12">
-        <v>0.723549</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="Y5" s="12">
-        <v>-2.9071E-2</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="Z5" s="12">
-        <v>0.223466</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="AA5" s="12">
-        <v>-6.1669999999999997E-3</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="AB5" s="12">
-        <v>-0.35795700000000003</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="AC5" s="12">
-        <v>0.43694899999999998</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="AD5" s="12">
-        <v>0.88270700000000002</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="12">
-        <v>1.692882</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="AF5" s="12">
-        <v>0.26751399999999997</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="AG5" s="12">
-        <v>0.14976100000000001</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="12">
-        <v>-0.21935499999999999</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="12">
-        <v>8.4277000000000005E-2</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="12">
-        <v>-2.8778000000000001E-2</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="AK5" s="12">
-        <v>-0.147118</v>
+        <v>0.997</v>
       </c>
       <c r="AL5" s="12">
-        <v>-0.29335499999999998</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="AM5" s="12">
-        <v>-0.121864</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="AN5" s="12">
-        <v>-0.15005399999999999</v>
+        <v>0.99780000000000002</v>
       </c>
       <c r="AO5" s="12">
-        <v>-9.2205999999999996E-2</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="AP5" s="12">
-        <v>0.156808</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="AQ5" s="12">
-        <v>-0.111293</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="AR5" s="12">
-        <v>-5.8729999999999997E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="AS5" s="12">
-        <v>0.58201099999999995</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="AT5" s="12">
-        <v>-4.2285000000000003E-2</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="AU5" s="12">
-        <v>0.234625</v>
+        <v>0.52659999999999996</v>
       </c>
       <c r="AV5" s="12">
-        <v>1.990642</v>
+        <v>0.52659999999999996</v>
       </c>
       <c r="AW5" s="12">
-        <v>-0.13478499999999999</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="AX5" s="12">
-        <v>0.14976100000000001</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AY5" s="12">
-        <v>-0.175014</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="AZ5" s="12">
-        <v>-1.8206E-2</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="BA5" s="12">
-        <v>-2.5547E-2</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="12">
-        <v>-0.57349499999999998</v>
+        <v>0.997</v>
       </c>
       <c r="BC5" s="12">
-        <v>0.23991100000000001</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="BD5" s="12">
-        <v>0.39466299999999999</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="BE5" s="12">
-        <v>0.43959100000000001</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="BF5" s="12">
-        <v>-0.75291399999999997</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="BG5" s="12">
-        <v>-0.14976100000000001</v>
+        <v>0.997</v>
       </c>
       <c r="BH5" s="12">
-        <v>-8.8094000000000006E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="BI5" s="12">
-        <v>0.78580300000000003</v>
+        <v>1.83E-2</v>
       </c>
       <c r="BJ5" s="12">
-        <v>-0.13272900000000001</v>
+        <v>0.6603</v>
       </c>
       <c r="BK5" s="12">
-        <v>1.5284390000000001</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="BL5" s="12">
-        <v>3.8468000000000002E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="BM5" s="12">
-        <v>-0.15798300000000001</v>
+        <v>1</v>
       </c>
       <c r="BN5" s="12">
-        <v>0.21671199999999999</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="BO5" s="12">
-        <v>-1.204E-2</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="12">
-        <v>0.37146499999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ5" s="12">
-        <v>-0.28894999999999998</v>
+        <v>0.99860000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>382</v>
       </c>
       <c r="B6" s="12">
-        <v>0.25840000000000002</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="C6" s="12">
-        <v>0.64249999999999996</v>
+        <v>7.8399999999999997E-3</v>
       </c>
       <c r="D6" s="12">
-        <v>0.98429999999999995</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
-        <v>0.98170000000000002</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
-        <v>0.98009999999999997</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>0.98260000000000003</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0.97940000000000005</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12">
-        <v>0.95209999999999995</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J6" s="12">
-        <v>0.94969999999999999</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>0.9798</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12">
-        <v>5.9900000000000002E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M6" s="12">
-        <v>0.85760000000000003</v>
+        <v>0.223</v>
       </c>
       <c r="N6" s="12">
-        <v>0.83689999999999998</v>
+        <v>0.223</v>
       </c>
       <c r="O6" s="12">
-        <v>0.7782</v>
+        <v>1.17E-2</v>
       </c>
       <c r="P6" s="12">
-        <v>0.85950000000000004</v>
+        <v>1.11E-2</v>
       </c>
       <c r="Q6" s="12">
-        <v>0.85919999999999996</v>
+        <v>1.11E-2</v>
       </c>
       <c r="R6" s="12">
-        <v>0.85899999999999999</v>
+        <v>9.5099999999999994E-3</v>
       </c>
       <c r="S6" s="12">
-        <v>0.88039999999999996</v>
+        <v>9.5099999999999994E-3</v>
       </c>
       <c r="T6" s="12">
-        <v>0.92100000000000004</v>
+        <v>1.18E-2</v>
       </c>
       <c r="U6" s="12">
-        <v>0.89559999999999995</v>
+        <v>1.18E-2</v>
       </c>
       <c r="V6" s="12">
-        <v>0.92959999999999998</v>
+        <v>1.9E-3</v>
       </c>
       <c r="W6" s="12">
-        <v>0.96519999999999995</v>
+        <v>1.8E-3</v>
       </c>
       <c r="X6" s="12">
-        <v>0.97729999999999995</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Y6" s="12">
-        <v>0.97929999999999995</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Z6" s="12">
-        <v>0.98019999999999996</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AA6" s="12">
-        <v>0.97050000000000003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AB6" s="12">
-        <v>0.97189999999999999</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AC6" s="12">
-        <v>0.95589999999999997</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AD6" s="12">
-        <v>0.96040000000000003</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="12">
-        <v>0.93659999999999999</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AF6" s="12">
-        <v>0.86370000000000002</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AG6" s="12">
-        <v>0.98899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="12">
-        <v>0.98570000000000002</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="12">
-        <v>0.98650000000000004</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="12">
-        <v>0.98650000000000004</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="AK6" s="12">
-        <v>0.97770000000000001</v>
+        <v>2.99E-3</v>
       </c>
       <c r="AL6" s="12">
-        <v>0.96630000000000005</v>
+        <v>3.29E-3</v>
       </c>
       <c r="AM6" s="12">
-        <v>0.96399999999999997</v>
+        <v>3.29E-3</v>
       </c>
       <c r="AN6" s="12">
-        <v>0.97589999999999999</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="AO6" s="12">
-        <v>0.82199999999999995</v>
+        <v>0.249</v>
       </c>
       <c r="AP6" s="12">
-        <v>0.81200000000000006</v>
+        <v>0.249</v>
       </c>
       <c r="AQ6" s="12">
-        <v>2.2499999999999999E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="AR6" s="12">
-        <v>2.7199999999999998E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="AS6" s="12">
-        <v>1.89E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="AT6" s="12">
-        <v>7.7000000000000002E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="AU6" s="12">
-        <v>0.80569999999999997</v>
+        <v>0.249</v>
       </c>
       <c r="AV6" s="12">
-        <v>0.80759999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="AW6" s="12">
-        <v>1.6400000000000001E-2</v>
+        <v>9.5099999999999994E-3</v>
       </c>
       <c r="AX6" s="12">
-        <v>0.99309999999999998</v>
+        <v>8.5299999999999994E-3</v>
       </c>
       <c r="AY6" s="12">
-        <v>0.9909</v>
+        <v>8.9899999999999995E-4</v>
       </c>
       <c r="AZ6" s="12">
-        <v>0.98129999999999995</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="BA6" s="12">
-        <v>6.1000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="12">
-        <v>0.99099999999999999</v>
+        <v>2.99E-3</v>
       </c>
       <c r="BC6" s="12">
-        <v>0.99229999999999996</v>
+        <v>1.9E-3</v>
       </c>
       <c r="BD6" s="12">
-        <v>0.98540000000000005</v>
+        <v>1.9E-3</v>
       </c>
       <c r="BE6" s="12">
-        <v>0.97760000000000002</v>
+        <v>1.9E-3</v>
       </c>
       <c r="BF6" s="12">
-        <v>0.98360000000000003</v>
+        <v>1.8E-3</v>
       </c>
       <c r="BG6" s="12">
-        <v>0.85470000000000002</v>
+        <v>2.99E-3</v>
       </c>
       <c r="BH6" s="12">
-        <v>0.71860000000000002</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="BI6" s="12">
-        <v>0.36919999999999997</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="BJ6" s="12">
-        <v>0.11940000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="BK6" s="12">
-        <v>0.12479999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="BL6" s="12">
-        <v>1.89E-2</v>
+        <v>8.7200000000000003E-3</v>
       </c>
       <c r="BM6" s="12">
-        <v>0.87039999999999995</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="12">
-        <v>0.86</v>
+        <v>8.7200000000000003E-3</v>
       </c>
       <c r="BO6" s="12">
-        <v>0.87139999999999995</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="12">
-        <v>0.87109999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="12">
-        <v>0.78990000000000005</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B7" s="12">
-        <v>0.19162944000000001</v>
+        <v>-4.3166000000000003E-2</v>
       </c>
       <c r="C7" s="12">
-        <v>0.22969375</v>
+        <v>-0.30715599999999998</v>
       </c>
       <c r="D7" s="12">
-        <v>1.545351E-2</v>
+        <v>-0.18822900000000001</v>
       </c>
       <c r="E7" s="12">
-        <v>1.7965109999999999E-2</v>
+        <v>0.20760899999999999</v>
       </c>
       <c r="F7" s="12">
-        <v>1.9503989999999999E-2</v>
+        <v>0.261934</v>
       </c>
       <c r="G7" s="12">
-        <v>1.709724E-2</v>
+        <v>-0.28014</v>
       </c>
       <c r="H7" s="12">
-        <v>2.0175640000000002E-2</v>
+        <v>7.5760999999999995E-2</v>
       </c>
       <c r="I7" s="12">
-        <v>4.5605590000000001E-2</v>
+        <v>-2.9071E-2</v>
       </c>
       <c r="J7" s="12">
-        <v>4.7769909999999999E-2</v>
+        <v>-0.35032200000000002</v>
       </c>
       <c r="K7" s="12">
-        <v>1.9791960000000001E-2</v>
+        <v>2.0514269999999999</v>
       </c>
       <c r="L7" s="12">
-        <v>5.6311989999999999E-2</v>
+        <v>1.8960870000000001</v>
       </c>
       <c r="M7" s="12">
-        <v>0.12212224000000001</v>
+        <v>1.2198150000000001</v>
       </c>
       <c r="N7" s="12">
-        <v>0.13649839</v>
+        <v>0.59669300000000003</v>
       </c>
       <c r="O7" s="12">
-        <v>0.17260476</v>
+        <v>-0.18587899999999999</v>
       </c>
       <c r="P7" s="12">
-        <v>0.12075975</v>
+        <v>2.7897000000000002E-2</v>
       </c>
       <c r="Q7" s="12">
-        <v>0.12097536</v>
+        <v>-4.7571000000000002E-2</v>
       </c>
       <c r="R7" s="12">
-        <v>0.121119</v>
+        <v>0.48863099999999998</v>
       </c>
       <c r="S7" s="12">
-        <v>0.10529584</v>
+        <v>2.349E-3</v>
       </c>
       <c r="T7" s="12">
-        <v>7.2759000000000004E-2</v>
+        <v>-0.113055</v>
       </c>
       <c r="U7" s="12">
-        <v>9.3500639999999996E-2</v>
+        <v>0.28014</v>
       </c>
       <c r="V7" s="12">
-        <v>6.5443840000000003E-2</v>
+        <v>0.59316999999999998</v>
       </c>
       <c r="W7" s="12">
-        <v>3.3588960000000001E-2</v>
+        <v>0.41375000000000001</v>
       </c>
       <c r="X7" s="12">
-        <v>2.218471E-2</v>
+        <v>0.723549</v>
       </c>
       <c r="Y7" s="12">
-        <v>2.027151E-2</v>
+        <v>-2.9071E-2</v>
       </c>
       <c r="Z7" s="12">
-        <v>1.9407959999999998E-2</v>
+        <v>0.223466</v>
       </c>
       <c r="AA7" s="12">
-        <v>2.8629749999999999E-2</v>
+        <v>-6.1669999999999997E-3</v>
       </c>
       <c r="AB7" s="12">
-        <v>2.731039E-2</v>
+        <v>-0.35795700000000003</v>
       </c>
       <c r="AC7" s="12">
-        <v>4.2155190000000002E-2</v>
+        <v>0.43694899999999998</v>
       </c>
       <c r="AD7" s="12">
-        <v>3.8031839999999997E-2</v>
+        <v>0.88270700000000002</v>
       </c>
       <c r="AE7" s="12">
-        <v>5.938044E-2</v>
+        <v>1.692882</v>
       </c>
       <c r="AF7" s="12">
-        <v>0.11772231</v>
+        <v>0.26751399999999997</v>
       </c>
       <c r="AG7" s="12">
-        <v>1.0879E-2</v>
+        <v>0.14976100000000001</v>
       </c>
       <c r="AH7" s="12">
-        <v>1.409551E-2</v>
+        <v>-0.21935499999999999</v>
       </c>
       <c r="AI7" s="12">
-        <v>1.331775E-2</v>
+        <v>8.4277000000000005E-2</v>
       </c>
       <c r="AJ7" s="12">
-        <v>1.331775E-2</v>
+        <v>-2.8778000000000001E-2</v>
       </c>
       <c r="AK7" s="12">
-        <v>2.1802709999999999E-2</v>
+        <v>-0.147118</v>
       </c>
       <c r="AL7" s="12">
-        <v>3.2564309999999999E-2</v>
+        <v>-0.29335499999999998</v>
       </c>
       <c r="AM7" s="12">
-        <v>3.4703999999999999E-2</v>
+        <v>-0.121864</v>
       </c>
       <c r="AN7" s="12">
-        <v>2.3519189999999999E-2</v>
+        <v>-0.15005399999999999</v>
       </c>
       <c r="AO7" s="12">
-        <v>0.146316</v>
+        <v>-9.2205999999999996E-2</v>
       </c>
       <c r="AP7" s="12">
-        <v>0.15265599999999999</v>
+        <v>0.156808</v>
       </c>
       <c r="AQ7" s="12">
-        <v>2.1993749999999999E-2</v>
+        <v>-0.111293</v>
       </c>
       <c r="AR7" s="12">
-        <v>2.646016E-2</v>
+        <v>-5.8729999999999997E-2</v>
       </c>
       <c r="AS7" s="12">
-        <v>1.854279E-2</v>
+        <v>0.58201099999999995</v>
       </c>
       <c r="AT7" s="12">
-        <v>7.6407100000000002E-3</v>
+        <v>-4.2285000000000003E-2</v>
       </c>
       <c r="AU7" s="12">
-        <v>0.15654751</v>
+        <v>0.234625</v>
       </c>
       <c r="AV7" s="12">
-        <v>0.15538224</v>
+        <v>1.990642</v>
       </c>
       <c r="AW7" s="12">
-        <v>1.6131039999999999E-2</v>
+        <v>-0.13478499999999999</v>
       </c>
       <c r="AX7" s="12">
-        <v>6.8523899999999999E-3</v>
+        <v>0.14976100000000001</v>
       </c>
       <c r="AY7" s="12">
-        <v>9.0171899999999996E-3</v>
+        <v>-0.175014</v>
       </c>
       <c r="AZ7" s="12">
-        <v>1.8350310000000002E-2</v>
+        <v>-1.8206E-2</v>
       </c>
       <c r="BA7" s="12">
-        <v>6.0627900000000002E-3</v>
+        <v>-2.5547E-2</v>
       </c>
       <c r="BB7" s="12">
-        <v>8.9189999999999998E-3</v>
+        <v>-0.57349499999999998</v>
       </c>
       <c r="BC7" s="12">
-        <v>7.6407100000000002E-3</v>
+        <v>0.23991100000000001</v>
       </c>
       <c r="BD7" s="12">
-        <v>1.438684E-2</v>
+        <v>0.39466299999999999</v>
       </c>
       <c r="BE7" s="12">
-        <v>2.1898239999999999E-2</v>
+        <v>0.43959100000000001</v>
       </c>
       <c r="BF7" s="12">
-        <v>1.6131039999999999E-2</v>
+        <v>-0.75291399999999997</v>
       </c>
       <c r="BG7" s="12">
-        <v>0.12418791</v>
+        <v>-0.14976100000000001</v>
       </c>
       <c r="BH7" s="12">
-        <v>0.20221404000000001</v>
+        <v>-8.8094000000000006E-2</v>
       </c>
       <c r="BI7" s="12">
-        <v>0.23289135999999999</v>
+        <v>0.78580300000000003</v>
       </c>
       <c r="BJ7" s="12">
-        <v>0.10514364</v>
+        <v>-0.13272900000000001</v>
       </c>
       <c r="BK7" s="12">
-        <v>0.10922496</v>
+        <v>1.5284390000000001</v>
       </c>
       <c r="BL7" s="12">
-        <v>1.854279E-2</v>
+        <v>3.8468000000000002E-2</v>
       </c>
       <c r="BM7" s="12">
-        <v>0.11280384</v>
+        <v>-0.15798300000000001</v>
       </c>
       <c r="BN7" s="12">
-        <v>0.12039999999999999</v>
+        <v>0.21671199999999999</v>
       </c>
       <c r="BO7" s="12">
-        <v>0.11206204</v>
+        <v>-1.204E-2</v>
       </c>
       <c r="BP7" s="12">
-        <v>0.11228479</v>
+        <v>0.37146499999999999</v>
       </c>
       <c r="BQ7" s="12">
-        <v>0.16595799</v>
+        <v>-0.28894999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="B8" s="12">
-        <v>0</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="C8" s="12">
-        <v>1.9E-2</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="F8" s="12">
-        <v>0</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="G8" s="12">
-        <v>0</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
+        <v>0.97940000000000005</v>
       </c>
       <c r="I8" s="12">
-        <v>0.79800000000000004</v>
+        <v>0.95209999999999995</v>
       </c>
       <c r="J8" s="12">
-        <v>0.63</v>
+        <v>0.94969999999999999</v>
       </c>
       <c r="K8" s="12">
-        <v>0</v>
+        <v>0.9798</v>
       </c>
       <c r="L8" s="12">
-        <v>0</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="M8" s="12">
-        <v>0</v>
+        <v>0.85760000000000003</v>
       </c>
       <c r="N8" s="12">
-        <v>0.32100000000000001</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="O8" s="12">
-        <v>0.26200000000000001</v>
+        <v>0.7782</v>
       </c>
       <c r="P8" s="12">
-        <v>0</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="Q8" s="12">
-        <v>0.121</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="R8" s="12">
-        <v>0.17499999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="S8" s="12">
-        <v>0.34799999999999998</v>
+        <v>0.88039999999999996</v>
       </c>
       <c r="T8" s="12">
-        <v>0</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="U8" s="12">
-        <v>0</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="V8" s="12">
-        <v>0.221</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="W8" s="12">
-        <v>0</v>
+        <v>0.96519999999999995</v>
       </c>
       <c r="X8" s="12">
-        <v>0</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="Y8" s="12">
-        <v>0.41099999999999998</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="Z8" s="12">
-        <v>1.0209999999999999</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="AA8" s="12">
-        <v>0.52</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="AB8" s="12">
-        <v>0.221</v>
+        <v>0.97189999999999999</v>
       </c>
       <c r="AC8" s="12">
-        <v>0.14599999999999999</v>
+        <v>0.95589999999999997</v>
       </c>
       <c r="AD8" s="12">
-        <v>0</v>
+        <v>0.96040000000000003</v>
       </c>
       <c r="AE8" s="12">
-        <v>0</v>
+        <v>0.93659999999999999</v>
       </c>
       <c r="AF8" s="12">
-        <v>0</v>
+        <v>0.86370000000000002</v>
       </c>
       <c r="AG8" s="12">
-        <v>1.077</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="AH8" s="12">
-        <v>0</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="AI8" s="12">
-        <v>0</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="AJ8" s="12">
-        <v>7.8E-2</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="AK8" s="12">
-        <v>0.19900000000000001</v>
+        <v>0.97770000000000001</v>
       </c>
       <c r="AL8" s="12">
-        <v>0.153</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="AM8" s="12">
-        <v>0.48199999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AN8" s="12">
-        <v>0</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="AO8" s="12">
-        <v>0</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="AP8" s="12">
-        <v>0.18099999999999999</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="AQ8" s="12">
-        <v>0.51800000000000002</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="AR8" s="12">
-        <v>0.98099999999999998</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="AS8" s="12">
-        <v>0</v>
+        <v>1.89E-2</v>
       </c>
       <c r="AT8" s="12">
-        <v>0.45400000000000001</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="AU8" s="12">
-        <v>0</v>
+        <v>0.80569999999999997</v>
       </c>
       <c r="AV8" s="12">
-        <v>0</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="AW8" s="12">
-        <v>0.85499999999999998</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="AX8" s="12">
-        <v>1.024</v>
+        <v>0.99309999999999998</v>
       </c>
       <c r="AY8" s="12">
-        <v>0</v>
+        <v>0.9909</v>
       </c>
       <c r="AZ8" s="12">
-        <v>0</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="BA8" s="12">
-        <v>0.41599999999999998</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="BB8" s="12">
-        <v>0</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="BC8" s="12">
-        <v>0</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="BD8" s="12">
-        <v>0</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="BE8" s="12">
-        <v>0.188</v>
+        <v>0.97760000000000002</v>
       </c>
       <c r="BF8" s="12">
-        <v>0</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="BG8" s="12">
-        <v>0</v>
+        <v>0.85470000000000002</v>
       </c>
       <c r="BH8" s="12">
-        <v>0.501</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="BI8" s="12">
-        <v>0</v>
+        <v>0.36919999999999997</v>
       </c>
       <c r="BJ8" s="12">
-        <v>0.34200000000000003</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="BK8" s="12">
-        <v>0.47899999999999998</v>
+        <v>0.12479999999999999</v>
       </c>
       <c r="BL8" s="12">
-        <v>1.1599999999999999</v>
+        <v>1.89E-2</v>
       </c>
       <c r="BM8" s="12">
-        <v>0</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="BN8" s="12">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="BO8" s="12">
-        <v>0</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="BP8" s="12">
-        <v>0.85699999999999998</v>
+        <v>0.87109999999999999</v>
       </c>
       <c r="BQ8" s="12">
-        <v>0</v>
+        <v>0.78990000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="B9" s="12">
-        <v>0.16400000000000001</v>
+        <v>0.19162944000000001</v>
       </c>
       <c r="C9" s="12">
-        <v>0.53400000000000003</v>
+        <v>0.22969375</v>
       </c>
       <c r="D9" s="12">
-        <v>0.999</v>
+        <v>1.545351E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>0.998</v>
+        <v>1.7965109999999999E-2</v>
       </c>
       <c r="F9" s="12">
-        <v>0.998</v>
+        <v>1.9503989999999999E-2</v>
       </c>
       <c r="G9" s="12">
-        <v>0.998</v>
+        <v>1.709724E-2</v>
       </c>
       <c r="H9" s="12">
-        <v>0.998</v>
+        <v>2.0175640000000002E-2</v>
       </c>
       <c r="I9" s="12">
-        <v>0.99199999999999999</v>
+        <v>4.5605590000000001E-2</v>
       </c>
       <c r="J9" s="12">
-        <v>0.98699999999999999</v>
+        <v>4.7769909999999999E-2</v>
       </c>
       <c r="K9" s="12">
-        <v>0.998</v>
+        <v>1.9791960000000001E-2</v>
       </c>
       <c r="L9" s="12">
-        <v>1.26E-2</v>
+        <v>5.6311989999999999E-2</v>
       </c>
       <c r="M9" s="12">
-        <v>0.92700000000000005</v>
+        <v>0.12212224000000001</v>
       </c>
       <c r="N9" s="12">
-        <v>0.92</v>
+        <v>0.13649839</v>
       </c>
       <c r="O9" s="12">
-        <v>0.90700000000000003</v>
+        <v>0.17260476</v>
       </c>
       <c r="P9" s="12">
-        <v>0.94899999999999995</v>
+        <v>0.12075975</v>
       </c>
       <c r="Q9" s="12">
-        <v>0.94899999999999995</v>
+        <v>0.12097536</v>
       </c>
       <c r="R9" s="12">
-        <v>0.94899999999999995</v>
+        <v>0.121119</v>
       </c>
       <c r="S9" s="12">
-        <v>0.95599999999999996</v>
+        <v>0.10529584</v>
       </c>
       <c r="T9" s="12">
-        <v>0.97899999999999998</v>
+        <v>7.2759000000000004E-2</v>
       </c>
       <c r="U9" s="12">
-        <v>0.97099999999999997</v>
+        <v>9.3500639999999996E-2</v>
       </c>
       <c r="V9" s="12">
-        <v>0.98099999999999998</v>
+        <v>6.5443840000000003E-2</v>
       </c>
       <c r="W9" s="12">
-        <v>0.996</v>
+        <v>3.3588960000000001E-2</v>
       </c>
       <c r="X9" s="12">
-        <v>0.998</v>
+        <v>2.218471E-2</v>
       </c>
       <c r="Y9" s="12">
-        <v>0.998</v>
+        <v>2.027151E-2</v>
       </c>
       <c r="Z9" s="12">
-        <v>0.998</v>
+        <v>1.9407959999999998E-2</v>
       </c>
       <c r="AA9" s="12">
-        <v>0.997</v>
+        <v>2.8629749999999999E-2</v>
       </c>
       <c r="AB9" s="12">
-        <v>0.997</v>
+        <v>2.731039E-2</v>
       </c>
       <c r="AC9" s="12">
-        <v>0.996</v>
+        <v>4.2155190000000002E-2</v>
       </c>
       <c r="AD9" s="12">
-        <v>0.98599999999999999</v>
+        <v>3.8031839999999997E-2</v>
       </c>
       <c r="AE9" s="12">
-        <v>0.96799999999999997</v>
+        <v>5.938044E-2</v>
       </c>
       <c r="AF9" s="12">
-        <v>0.91300000000000003</v>
+        <v>0.11772231</v>
       </c>
       <c r="AG9" s="12">
-        <v>0.999</v>
+        <v>1.0879E-2</v>
       </c>
       <c r="AH9" s="12">
-        <v>0.999</v>
+        <v>1.409551E-2</v>
       </c>
       <c r="AI9" s="12">
-        <v>0.999</v>
+        <v>1.331775E-2</v>
       </c>
       <c r="AJ9" s="12">
-        <v>0.999</v>
+        <v>1.331775E-2</v>
       </c>
       <c r="AK9" s="12">
-        <v>0.998</v>
+        <v>2.1802709999999999E-2</v>
       </c>
       <c r="AL9" s="12">
-        <v>0.997</v>
+        <v>3.2564309999999999E-2</v>
       </c>
       <c r="AM9" s="12">
-        <v>0.997</v>
+        <v>3.4703999999999999E-2</v>
       </c>
       <c r="AN9" s="12">
-        <v>0.998</v>
+        <v>2.3519189999999999E-2</v>
       </c>
       <c r="AO9" s="12">
-        <v>0.90700000000000003</v>
+        <v>0.146316</v>
       </c>
       <c r="AP9" s="12">
-        <v>0.90600000000000003</v>
+        <v>0.15265599999999999</v>
       </c>
       <c r="AQ9" s="12">
-        <v>2.8999999999999998E-3</v>
+        <v>2.1993749999999999E-2</v>
       </c>
       <c r="AR9" s="12">
-        <v>3.0999999999999999E-3</v>
+        <v>2.646016E-2</v>
       </c>
       <c r="AS9" s="12">
-        <v>2.3999999999999998E-3</v>
+        <v>1.854279E-2</v>
       </c>
       <c r="AT9" s="12">
-        <v>8.9999999999999998E-4</v>
+        <v>7.6407100000000002E-3</v>
       </c>
       <c r="AU9" s="12">
-        <v>0.90500000000000003</v>
+        <v>0.15654751</v>
       </c>
       <c r="AV9" s="12">
-        <v>0.90500000000000003</v>
+        <v>0.15538224</v>
       </c>
       <c r="AW9" s="12">
-        <v>1.8E-3</v>
+        <v>1.6131039999999999E-2</v>
       </c>
       <c r="AX9" s="12">
-        <v>1</v>
+        <v>6.8523899999999999E-3</v>
       </c>
       <c r="AY9" s="12">
-        <v>0.999</v>
+        <v>9.0171899999999996E-3</v>
       </c>
       <c r="AZ9" s="12">
-        <v>0.999</v>
+        <v>1.8350310000000002E-2</v>
       </c>
       <c r="BA9" s="12">
-        <v>6.9999999999999999E-4</v>
+        <v>6.0627900000000002E-3</v>
       </c>
       <c r="BB9" s="12">
-        <v>1</v>
+        <v>8.9189999999999998E-3</v>
       </c>
       <c r="BC9" s="12">
-        <v>0.999</v>
+        <v>7.6407100000000002E-3</v>
       </c>
       <c r="BD9" s="12">
-        <v>0.999</v>
+        <v>1.438684E-2</v>
       </c>
       <c r="BE9" s="12">
-        <v>0.998</v>
+        <v>2.1898239999999999E-2</v>
       </c>
       <c r="BF9" s="12">
-        <v>0.998</v>
+        <v>1.6131039999999999E-2</v>
       </c>
       <c r="BG9" s="12">
-        <v>0.91200000000000003</v>
+        <v>0.12418791</v>
       </c>
       <c r="BH9" s="12">
-        <v>0.81599999999999995</v>
+        <v>0.20221404000000001</v>
       </c>
       <c r="BI9" s="12">
-        <v>0.46600000000000003</v>
+        <v>0.23289135999999999</v>
       </c>
       <c r="BJ9" s="12">
-        <v>6.6699999999999995E-2</v>
+        <v>0.10514364</v>
       </c>
       <c r="BK9" s="12">
-        <v>6.7299999999999999E-2</v>
+        <v>0.10922496</v>
       </c>
       <c r="BL9" s="12">
-        <v>2.2000000000000001E-3</v>
+        <v>1.854279E-2</v>
       </c>
       <c r="BM9" s="12">
-        <v>0.95</v>
+        <v>0.11280384</v>
       </c>
       <c r="BN9" s="12">
-        <v>0.94899999999999995</v>
+        <v>0.12039999999999999</v>
       </c>
       <c r="BO9" s="12">
-        <v>0.95</v>
+        <v>0.11206204</v>
       </c>
       <c r="BP9" s="12">
-        <v>0.95</v>
+        <v>0.11228479</v>
       </c>
       <c r="BQ9" s="12">
-        <v>0.90800000000000003</v>
+        <v>0.16595799</v>
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="B10" s="12">
-        <v>0.13717119</v>
+        <v>0.87929999999999997</v>
       </c>
       <c r="C10" s="12">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.9869</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="L10" s="12">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.43740000000000001</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0.9506</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0.9889</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0.9879</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>4.99E-2</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>0.1009</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="AT10" s="12">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="AV10" s="12">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="AW10" s="12">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="AX10" s="12">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="AY10" s="12">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="AZ10" s="12">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="BA10" s="12">
+        <v>1.21E-2</v>
+      </c>
+      <c r="BB10" s="12">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="BC10" s="12">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="BD10" s="12">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="BE10" s="12">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="BF10" s="12">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="BH10" s="12">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="BI10" s="12">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="BJ10" s="12">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="BK10" s="12">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="BL10" s="12">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="BM10" s="12">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="BN10" s="12">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="BO10" s="12">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="BP10" s="12">
+        <v>0.997</v>
+      </c>
+      <c r="BQ10" s="12">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.106</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>7.9900000000000001E-4</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>7.9900000000000001E-4</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.29E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3.29E-3</v>
+      </c>
+      <c r="L11" s="12">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.246</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0.245</v>
+      </c>
+      <c r="O11" s="12">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="P11" s="12">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="R11" s="12">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="S11" s="12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="T11" s="12">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="U11" s="12">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="V11" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="W11" s="12">
+        <v>3.78E-2</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1.23E-2</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>1.09E-2</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="AL11" s="12">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="AM11" s="12">
+        <v>5.79E-2</v>
+      </c>
+      <c r="AN11" s="12">
+        <v>4.87E-2</v>
+      </c>
+      <c r="AO11" s="12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AP11" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AQ11" s="12">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="AR11" s="12">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="AS11" s="12">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="AT11" s="12">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="AU11" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AV11" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AW11" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AX11" s="12">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="AY11" s="12">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="AZ11" s="12">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="BA11" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BB11" s="12">
+        <v>2.76E-2</v>
+      </c>
+      <c r="BC11" s="12">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="BD11" s="12">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="BE11" s="12">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="BF11" s="12">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="BG11" s="12">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="BH11" s="12">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="BI11" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BJ11" s="12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="BK11" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="BL11" s="12">
+        <v>7.17E-2</v>
+      </c>
+      <c r="BM11" s="12">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="BN11" s="12">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="BO11" s="12">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="BP11" s="12">
+        <v>2.99E-3</v>
+      </c>
+      <c r="BQ11" s="12">
+        <v>2.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="12">
+        <v>-3.4993999999999997E-2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.2187999999999999E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.0717999999999999E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-0.24002799999999999</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.119448</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.35888999999999999</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.50936599999999999</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.85027600000000003</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1.233527</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.462961</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1.116601</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0.27992299999999998</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.27596500000000002</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0.92450900000000003</v>
+      </c>
+      <c r="P12" s="12">
+        <v>7.6693999999999998E-2</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="R12" s="12">
+        <v>8.4667000000000006E-2</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1.5723999999999998E-2</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0.30066300000000001</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0.16655400000000001</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0.962669</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0.45958100000000002</v>
+      </c>
+      <c r="X12" s="12">
+        <v>1.8694219999999999</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>1.75098</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1.3041100000000001</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0.80945199999999995</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0.75785800000000003</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0.77501200000000003</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0.95125700000000002</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0.43147099999999999</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0.108334</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>4.1147000000000003E-2</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>5.6849999999999999E-3</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>6.3139000000000001E-2</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>4.0780999999999998E-2</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>1.1531E-2</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>5.7002999999999998E-2</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>0.20097799999999999</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>0.30565900000000001</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>2.2078E-2</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>0.26775500000000002</v>
+      </c>
+      <c r="AQ12" s="12">
+        <v>2.6958410000000002</v>
+      </c>
+      <c r="AR12" s="12">
+        <v>1.350984</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>1.100908</v>
+      </c>
+      <c r="AT12" s="12">
+        <v>1.8149090000000001</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>0.93816699999999997</v>
+      </c>
+      <c r="AV12" s="12">
+        <v>4.0146559999999996</v>
+      </c>
+      <c r="AW12" s="12">
+        <v>0.68314900000000001</v>
+      </c>
+      <c r="AX12" s="12">
+        <v>0.120324</v>
+      </c>
+      <c r="AY12" s="12">
+        <v>-3.1852999999999999E-2</v>
+      </c>
+      <c r="AZ12" s="12">
+        <v>0.100212</v>
+      </c>
+      <c r="BA12" s="12">
+        <v>3.2453500000000002</v>
+      </c>
+      <c r="BB12" s="12">
+        <v>0.162439</v>
+      </c>
+      <c r="BC12" s="12">
+        <v>4.0804E-2</v>
+      </c>
+      <c r="BD12" s="12">
+        <v>2.0147999999999999E-2</v>
+      </c>
+      <c r="BE12" s="12">
+        <v>6.1156000000000002E-2</v>
+      </c>
+      <c r="BF12" s="12">
+        <v>5.7966999999999998E-2</v>
+      </c>
+      <c r="BG12" s="12">
+        <v>0.25975599999999999</v>
+      </c>
+      <c r="BH12" s="12">
+        <v>1.1003309999999999</v>
+      </c>
+      <c r="BI12" s="12">
+        <v>0.19883100000000001</v>
+      </c>
+      <c r="BJ12" s="12">
+        <v>0.96913800000000005</v>
+      </c>
+      <c r="BK12" s="12">
+        <v>0.84994599999999998</v>
+      </c>
+      <c r="BL12" s="12">
+        <v>0.45921600000000001</v>
+      </c>
+      <c r="BM12" s="12">
+        <v>0.16941800000000001</v>
+      </c>
+      <c r="BN12" s="12">
+        <v>-5.7646000000000003E-2</v>
+      </c>
+      <c r="BO12" s="12">
+        <v>-5.071E-3</v>
+      </c>
+      <c r="BP12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="12">
+        <v>0.26691900000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.3967</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.7097</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0.36630000000000001</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.59140000000000004</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0.7248</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0.7944</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0.7732</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="AO13" s="12">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="AQ13" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AR13" s="12">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="AS13" s="12">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="AT13" s="12">
+        <v>5.74E-2</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="AV13" s="12">
+        <v>0.45939999999999998</v>
+      </c>
+      <c r="AW13" s="12">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="AX13" s="12">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="AY13" s="12">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="AZ13" s="12">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="BA13" s="12">
+        <v>5.45E-2</v>
+      </c>
+      <c r="BB13" s="12">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="BC13" s="12">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="BD13" s="12">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="BE13" s="12">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="BF13" s="12">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="BG13" s="12">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="BH13" s="12">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="BI13" s="12">
+        <v>0.2848</v>
+      </c>
+      <c r="BJ13" s="12">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="BK13" s="12">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="BL13" s="12">
+        <v>0.1135</v>
+      </c>
+      <c r="BM13" s="12">
+        <v>0.6119</v>
+      </c>
+      <c r="BN13" s="12">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="BO13" s="12">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="BP13" s="12">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="BQ13" s="12">
+        <v>0.43130000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.23932911000000001</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.21290524</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.10794639</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.13062974999999999</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.14248158999999999</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.1275</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.15064896</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.20602591000000001</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.19838016</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.13944375000000001</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.19557110999999999</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.20805696000000001</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.22839100000000001</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0.23212431</v>
+      </c>
+      <c r="P14" s="12">
+        <v>0.24164604000000001</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>0.24327599999999999</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0.24852543999999999</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0.22761983999999999</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0.21607035999999999</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0.24484475999999999</v>
+      </c>
+      <c r="V14" s="12">
+        <v>0.19946496</v>
+      </c>
+      <c r="W14" s="12">
+        <v>0.20441775000000001</v>
+      </c>
+      <c r="X14" s="12">
+        <v>0.18098871</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>0.17617911</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>0.16332864</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>0.18789935999999999</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>0.17536176000000001</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>0.17431999000000001</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>0.123975</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>0.19056155999999999</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>0.19278335999999999</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>0.15165503999999999</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>0.11772231</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>0.11931775</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>0.14411483999999999</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>0.17182384000000001</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>0.21003999000000001</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>0.17360303999999999</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>0.24319374999999999</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>0.24949374999999999</v>
+      </c>
+      <c r="AQ14" s="12">
+        <v>0.144375</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>0.15303004000000001</v>
+      </c>
+      <c r="AS14" s="12">
+        <v>8.8797749999999995E-2</v>
+      </c>
+      <c r="AT14" s="12">
+        <v>5.4105239999999999E-2</v>
+      </c>
+      <c r="AU14" s="12">
         <v>0.24883719000000001</v>
       </c>
-      <c r="D10" s="12">
-        <v>8.9919000000000002E-4</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2.09559E-3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2.09559E-3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1.9959999999999999E-3</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1.9959999999999999E-3</v>
-      </c>
-      <c r="I10" s="12">
-        <v>8.3294400000000005E-3</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1.3025760000000001E-2</v>
-      </c>
-      <c r="K10" s="12">
-        <v>2.09559E-3</v>
-      </c>
-      <c r="L10" s="12">
-        <v>1.2441239999999999E-2</v>
-      </c>
-      <c r="M10" s="12">
-        <v>6.7585590000000001E-2</v>
-      </c>
-      <c r="N10" s="12">
-        <v>7.3767959999999994E-2</v>
-      </c>
-      <c r="O10" s="12">
-        <v>8.4676440000000006E-2</v>
-      </c>
-      <c r="P10" s="12">
-        <v>4.8488789999999997E-2</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>4.8488789999999997E-2</v>
-      </c>
-      <c r="R10" s="12">
-        <v>4.857856E-2</v>
-      </c>
-      <c r="S10" s="12">
-        <v>4.1881559999999998E-2</v>
-      </c>
-      <c r="T10" s="12">
-        <v>2.0175640000000002E-2</v>
-      </c>
-      <c r="U10" s="12">
-        <v>2.7970559999999998E-2</v>
-      </c>
-      <c r="V10" s="12">
-        <v>1.8735189999999999E-2</v>
-      </c>
-      <c r="W10" s="12">
-        <v>4.1823600000000004E-3</v>
-      </c>
-      <c r="X10" s="12">
-        <v>2.2947100000000002E-3</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>2.2947100000000002E-3</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>2.2947100000000002E-3</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>3.28911E-3</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>3.1897599999999998E-3</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>4.3806399999999999E-3</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>1.360956E-2</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>3.125671E-2</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>7.9100439999999994E-2</v>
-      </c>
-      <c r="AG10" s="12">
-        <v>1.4977499999999999E-3</v>
-      </c>
-      <c r="AH10" s="12">
-        <v>1.4977499999999999E-3</v>
-      </c>
-      <c r="AI10" s="12">
-        <v>9.990000000000001E-4</v>
-      </c>
-      <c r="AJ10" s="12">
-        <v>9.990000000000001E-4</v>
-      </c>
-      <c r="AK10" s="12">
-        <v>2.2947100000000002E-3</v>
-      </c>
-      <c r="AL10" s="12">
-        <v>3.1897599999999998E-3</v>
-      </c>
-      <c r="AM10" s="12">
-        <v>3.3884399999999999E-3</v>
-      </c>
-      <c r="AN10" s="12">
-        <v>2.4937499999999999E-3</v>
-      </c>
-      <c r="AO10" s="12">
-        <v>8.4757750000000007E-2</v>
-      </c>
-      <c r="AP10" s="12">
-        <v>8.5326360000000004E-2</v>
-      </c>
-      <c r="AQ10" s="12">
-        <v>2.8915899999999999E-3</v>
-      </c>
-      <c r="AR10" s="12">
-        <v>3.0903900000000002E-3</v>
-      </c>
-      <c r="AS10" s="12">
-        <v>2.3942400000000002E-3</v>
-      </c>
-      <c r="AT10" s="12">
-        <v>8.9919000000000002E-4</v>
-      </c>
-      <c r="AU10" s="12">
-        <v>8.6055989999999999E-2</v>
-      </c>
-      <c r="AV10" s="12">
-        <v>8.6055989999999999E-2</v>
-      </c>
-      <c r="AW10" s="12">
-        <v>1.7967599999999999E-3</v>
-      </c>
-      <c r="AX10" s="12">
-        <v>3.9983999999999999E-4</v>
-      </c>
-      <c r="AY10" s="12">
-        <v>7.9936000000000004E-4</v>
-      </c>
-      <c r="AZ10" s="12">
-        <v>1.3980399999999999E-3</v>
-      </c>
-      <c r="BA10" s="12">
-        <v>6.9950999999999998E-4</v>
-      </c>
-      <c r="BB10" s="12">
-        <v>4.9974999999999998E-4</v>
-      </c>
-      <c r="BC10" s="12">
-        <v>5.9964000000000003E-4</v>
-      </c>
-      <c r="BD10" s="12">
-        <v>1.19856E-3</v>
-      </c>
-      <c r="BE10" s="12">
-        <v>2.4937499999999999E-3</v>
-      </c>
-      <c r="BF10" s="12">
-        <v>1.9959999999999999E-3</v>
-      </c>
-      <c r="BG10" s="12">
-        <v>8.0008709999999997E-2</v>
-      </c>
-      <c r="BH10" s="12">
-        <v>0.15027035999999999</v>
-      </c>
-      <c r="BI10" s="12">
-        <v>0.24883036</v>
-      </c>
-      <c r="BJ10" s="12">
-        <v>6.2251109999999998E-2</v>
-      </c>
-      <c r="BK10" s="12">
-        <v>6.2770709999999993E-2</v>
-      </c>
-      <c r="BL10" s="12">
-        <v>2.1951599999999998E-3</v>
-      </c>
-      <c r="BM10" s="12">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="BN10" s="12">
-        <v>4.8488789999999997E-2</v>
-      </c>
-      <c r="BO10" s="12">
-        <v>4.7409989999999999E-2</v>
-      </c>
-      <c r="BP10" s="12">
-        <v>4.7409989999999999E-2</v>
-      </c>
-      <c r="BQ10" s="12">
-        <v>8.3699159999999995E-2</v>
+      <c r="AV14" s="12">
+        <v>0.24835164000000001</v>
+      </c>
+      <c r="AW14" s="12">
+        <v>8.3862240000000005E-2</v>
+      </c>
+      <c r="AX14" s="12">
+        <v>7.3935840000000003E-2</v>
+      </c>
+      <c r="AY14" s="12">
+        <v>0.10597975</v>
+      </c>
+      <c r="AZ14" s="12">
+        <v>0.14043900000000001</v>
+      </c>
+      <c r="BA14" s="12">
+        <v>5.1529749999999999E-2</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>0.13582358999999999</v>
+      </c>
+      <c r="BC14" s="12">
+        <v>0.10749375</v>
+      </c>
+      <c r="BD14" s="12">
+        <v>0.14644476000000001</v>
+      </c>
+      <c r="BE14" s="12">
+        <v>0.16065879</v>
+      </c>
+      <c r="BF14" s="12">
+        <v>0.13810975</v>
+      </c>
+      <c r="BG14" s="12">
+        <v>0.22343099999999999</v>
+      </c>
+      <c r="BH14" s="12">
+        <v>0.24995100000000001</v>
+      </c>
+      <c r="BI14" s="12">
+        <v>0.20368896</v>
+      </c>
+      <c r="BJ14" s="12">
+        <v>0.12197916</v>
+      </c>
+      <c r="BK14" s="12">
+        <v>0.16029974999999999</v>
+      </c>
+      <c r="BL14" s="12">
+        <v>0.10061775000000001</v>
+      </c>
+      <c r="BM14" s="12">
+        <v>0.23747839000000001</v>
+      </c>
+      <c r="BN14" s="12">
+        <v>0.24710556</v>
+      </c>
+      <c r="BO14" s="12">
+        <v>0.23598143999999999</v>
+      </c>
+      <c r="BP14" s="12">
+        <v>0.23291750999999999</v>
+      </c>
+      <c r="BQ14" s="12">
+        <v>0.24528031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.9899</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0.7681</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0.8306</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0.8629</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="AG15" s="12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="AM15" s="12">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="AN15" s="12">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="AO15" s="12">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="AP15" s="12">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="AQ15" s="12">
+        <v>0.1704</v>
+      </c>
+      <c r="AR15" s="12">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="AS15" s="12">
+        <v>0.2452</v>
+      </c>
+      <c r="AT15" s="12">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="AU15" s="12">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="AV15" s="12">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="AW15" s="12">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="AX15" s="12">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="AY15" s="12">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="AZ15" s="12">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="BA15" s="12">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="BB15" s="12">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="BC15" s="12">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="BD15" s="12">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="BE15" s="12">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="BF15" s="12">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="BG15" s="12">
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="BH15" s="12">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="BI15" s="12">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="BJ15" s="12">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="BK15" s="12">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="BL15" s="12">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="BM15" s="12">
+        <v>0.9617</v>
+      </c>
+      <c r="BN15" s="12">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="BO15" s="12">
+        <v>0.9597</v>
+      </c>
+      <c r="BP15" s="12">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="BQ15" s="12">
+        <v>0.83740000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.11487024</v>
+      </c>
+      <c r="C16" s="12">
+        <v>6.2164440000000001E-2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9.99799E-3</v>
+      </c>
+      <c r="E16" s="12">
+        <v>7.7391600000000001E-3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1.709724E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>9.1153599999999994E-3</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2.3804639999999998E-2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>5.6575960000000002E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2.4944640000000001E-2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2.446999E-2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.15253116</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.2475</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.24614359</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.20615164</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.17806875999999999</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0.17812238999999999</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0.12003975</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0.12567323999999999</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0.15414784000000001</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0.15666975</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0.14070363999999999</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0.11830359</v>
+      </c>
+      <c r="X16" s="12">
+        <v>4.6599000000000002E-2</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>3.1630709999999999E-2</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>2.1037750000000001E-2</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>3.3867990000000001E-2</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>2.5987110000000001E-2</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>3.1724160000000001E-2</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>2.1516E-2</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>4.6508790000000001E-2</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>6.8864640000000005E-2</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>2.4375000000000001E-2</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>2.8253190000000001E-2</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>1.7868760000000001E-2</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>0.10854879000000001</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>0.15178043999999999</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>0.16309296000000001</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>0.17574375</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>0.14580016000000001</v>
+      </c>
+      <c r="AO16" s="12">
+        <v>0.24949374999999999</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>0.24827774999999999</v>
+      </c>
+      <c r="AQ16" s="12">
+        <v>0.14136383999999999</v>
+      </c>
+      <c r="AR16" s="12">
+        <v>0.19359375000000001</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>0.18507696000000001</v>
+      </c>
+      <c r="AT16" s="12">
+        <v>5.4901110000000003E-2</v>
+      </c>
+      <c r="AU16" s="12">
+        <v>0.24545723999999999</v>
+      </c>
+      <c r="AV16" s="12">
+        <v>0.24580096000000001</v>
+      </c>
+      <c r="AW16" s="12">
+        <v>0.11837615999999999</v>
+      </c>
+      <c r="AX16" s="12">
+        <v>7.2169109999999995E-2</v>
+      </c>
+      <c r="AY16" s="12">
+        <v>7.7857990000000002E-2</v>
+      </c>
+      <c r="AZ16" s="12">
+        <v>9.9533590000000005E-2</v>
+      </c>
+      <c r="BA16" s="12">
+        <v>3.6863099999999999E-3</v>
+      </c>
+      <c r="BB16" s="12">
+        <v>0.16011996000000001</v>
+      </c>
+      <c r="BC16" s="12">
+        <v>0.126799</v>
+      </c>
+      <c r="BD16" s="12">
+        <v>0.13649839</v>
+      </c>
+      <c r="BE16" s="12">
+        <v>0.13676774999999999</v>
+      </c>
+      <c r="BF16" s="12">
+        <v>0.11545776000000001</v>
+      </c>
+      <c r="BG16" s="12">
+        <v>0.14508879</v>
+      </c>
+      <c r="BH16" s="12">
+        <v>0.11706684000000001</v>
+      </c>
+      <c r="BI16" s="12">
+        <v>0.14156151</v>
+      </c>
+      <c r="BJ16" s="12">
+        <v>0.24999676000000001</v>
+      </c>
+      <c r="BK16" s="12">
+        <v>0.23720838999999999</v>
+      </c>
+      <c r="BL16" s="12">
+        <v>0.15721884</v>
+      </c>
+      <c r="BM16" s="12">
+        <v>3.6833110000000002E-2</v>
+      </c>
+      <c r="BN16" s="12">
+        <v>0.17293823999999999</v>
+      </c>
+      <c r="BO16" s="12">
+        <v>3.8675910000000001E-2</v>
+      </c>
+      <c r="BP16" s="12">
+        <v>3.821596E-2</v>
+      </c>
+      <c r="BQ16" s="12">
+        <v>0.13616123999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5944,69 +8446,128 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03278830-F536-42D8-BD80-9FD3D53ADD4F}">
+  <dimension ref="A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32F74F-3135-4E3F-A08F-E214DAFF77F5}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="2" max="3" width="40.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6022,7 +8583,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6305,28 +8866,28 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6344,7 +8905,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6540,7 +9101,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>200</v>
@@ -6582,10 +9143,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2">
         <v>-13.57</v>
@@ -6596,16 +9157,16 @@
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C18" s="2">
         <v>-13.15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6623,28 +9184,28 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6661,8 +9222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB1AE9-AC8E-478E-AB85-0B5FD7DF3058}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6954,28 +9515,28 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6991,8 +9552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F11EA-8374-4FE9-AA4E-7909CE4D57A1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7145,10 +9706,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1">
         <v>-12.41</v>
@@ -7173,10 +9734,10 @@
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1">
         <v>-11.67</v>
@@ -7228,28 +9789,28 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7266,7 +9827,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7279,7 +9840,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -7293,7 +9854,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>192</v>
@@ -7307,55 +9868,55 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1">
-        <v>-17.54</v>
+        <v>-17.25</v>
       </c>
       <c r="D3" s="1">
-        <v>-17.190000000000001</v>
+        <v>-17.18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>253</v>
+      <c r="A4" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-17.25</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-17.18</v>
+        <v>293</v>
+      </c>
+      <c r="C4" s="23">
+        <v>-10.39</v>
+      </c>
+      <c r="D4" s="23">
+        <v>-10.39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7372,7 +9933,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A22" sqref="A22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7420,11 +9981,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7441,7 +10002,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -7456,13 +10017,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="29"/>
       <c r="C6" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -7479,7 +10040,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
@@ -7494,7 +10055,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
@@ -7509,7 +10070,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
@@ -7524,7 +10085,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
@@ -7539,13 +10100,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="29"/>
       <c r="C12" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -7562,13 +10123,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="29"/>
       <c r="C14" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -7585,7 +10146,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
@@ -7600,13 +10161,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="29"/>
       <c r="C17" s="18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -7623,13 +10184,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="29"/>
       <c r="C19" s="18" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -7646,19 +10207,19 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="29"/>
       <c r="C21" s="18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7679,7 +10240,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7901,7 +10462,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>92</v>
@@ -7914,28 +10475,28 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -8012,7 +10573,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1">
         <v>-18.850000000000001</v>
@@ -8023,7 +10584,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>43</v>
@@ -8068,7 +10629,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1">
         <v>-16.829999999999998</v>
@@ -8082,7 +10643,7 @@
         <v>205</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1">
         <v>-16.66</v>
@@ -8096,7 +10657,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1">
         <v>-16.489999999999998</v>
@@ -8110,7 +10671,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1">
         <v>-15.43</v>
@@ -8124,7 +10685,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1">
         <v>-15.37</v>
@@ -8152,7 +10713,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1">
         <v>-14.92</v>
@@ -8166,7 +10727,7 @@
         <v>206</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1">
         <v>-14.85</v>
@@ -8191,7 +10752,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>48</v>
@@ -8208,7 +10769,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1">
         <v>-13.37</v>
@@ -8218,28 +10779,28 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
